--- a/BillOfMaterials.xlsx
+++ b/BillOfMaterials.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>Line</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Strip soft-pot</t>
   </si>
   <si>
-    <t>10K pot</t>
-  </si>
-  <si>
     <t>100K pot</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>IMU board</t>
   </si>
   <si>
-    <t>MCP6004P</t>
-  </si>
-  <si>
     <t>On order?</t>
   </si>
   <si>
@@ -126,6 +120,12 @@
   </si>
   <si>
     <t>20 cnt 6" male-female jumpers</t>
+  </si>
+  <si>
+    <t>NTE987</t>
+  </si>
+  <si>
+    <t>Vetco</t>
   </si>
 </sst>
 </file>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,10 +492,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -518,13 +518,13 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1">
         <v>15.96</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I20" si="0">H2*C2</f>
+        <f t="shared" ref="I2:I19" si="0">H2*C2</f>
         <v>15.96</v>
       </c>
     </row>
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1">
         <v>3.78</v>
@@ -557,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1">
         <v>1.56</v>
@@ -581,7 +581,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -590,7 +590,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1">
         <v>1.76</v>
@@ -614,7 +614,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1">
         <v>31.96</v>
@@ -650,13 +650,13 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1">
         <v>0.48</v>
@@ -680,7 +680,7 @@
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1">
         <v>1.9E-2</v>
@@ -752,7 +752,7 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1">
         <v>1.9E-2</v>
@@ -776,7 +776,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1">
         <v>1.9E-2</v>
@@ -800,7 +800,7 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1">
         <v>5.56</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -824,7 +824,7 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H15" s="1">
         <v>0.61799999999999999</v>
@@ -836,55 +836,55 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H16" s="1">
-        <v>0.61799999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="0"/>
-        <v>1.236</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
-      <c r="F17" t="s">
-        <v>31</v>
+      <c r="G17" t="s">
+        <v>29</v>
       </c>
       <c r="H17" s="1">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -895,44 +895,44 @@
       <c r="E18" t="s">
         <v>19</v>
       </c>
-      <c r="G18" t="s">
-        <v>31</v>
+      <c r="F18" t="s">
+        <v>29</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.276</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H19" s="1">
-        <v>0.31900000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="0"/>
-        <v>1.276</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -941,47 +941,23 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H20" s="1">
-        <v>0.6</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>H20*C20</f>
+        <v>39.950000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="1">
-        <v>39.950000000000003</v>
-      </c>
       <c r="I21" s="1">
-        <f>H21*C21</f>
-        <v>39.950000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I22" s="1">
-        <f>SUM(I2:I21)</f>
-        <v>106.70799999999998</v>
+        <f>SUM(I2:I20)</f>
+        <v>105.47199999999999</v>
       </c>
     </row>
   </sheetData>

--- a/BillOfMaterials.xlsx
+++ b/BillOfMaterials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="5016"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="8820" windowHeight="5016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Line</t>
   </si>
@@ -105,15 +105,6 @@
   </si>
   <si>
     <t>IMU board</t>
-  </si>
-  <si>
-    <t>On order?</t>
-  </si>
-  <si>
-    <t>On hand?</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>20 cnt 6" male-male jumpers</t>
@@ -456,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,13 +460,11 @@
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,20 +480,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -517,18 +500,15 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="F2" s="1">
         <v>15.96</v>
       </c>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2:I19" si="0">H2*C2</f>
+      <c r="G2" s="1">
+        <f>F2*C2</f>
         <v>15.96</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -541,23 +521,20 @@
       <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="F3" s="1">
         <v>3.78</v>
       </c>
-      <c r="I3" s="1">
-        <f t="shared" si="0"/>
+      <c r="G3" s="1">
+        <f>F3*C3</f>
         <v>3.78</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -565,23 +542,20 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="F4" s="1">
         <v>1.56</v>
       </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
+      <c r="G4" s="1">
+        <f>F4*C4</f>
         <v>1.56</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -589,18 +563,15 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="F5" s="1">
         <v>1.76</v>
       </c>
-      <c r="I5" s="1">
-        <f t="shared" si="0"/>
+      <c r="G5" s="1">
+        <f>F5*C5</f>
         <v>1.76</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -613,18 +584,15 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="F6" s="1">
         <v>31.96</v>
       </c>
-      <c r="I6" s="1">
-        <f t="shared" si="0"/>
+      <c r="G6" s="1">
+        <f>F6*C6</f>
         <v>31.96</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -634,12 +602,12 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
+      <c r="G7" s="1">
+        <f>F7*C7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -650,23 +618,20 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.48</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="0"/>
+      <c r="G8" s="1">
+        <f>F8*C8</f>
         <v>0.96</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -679,18 +644,15 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="0"/>
+      <c r="G9" s="1">
+        <f>F9*C9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -703,18 +665,15 @@
       <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="0"/>
+      <c r="G10" s="1">
+        <f>F10*C10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -727,18 +686,15 @@
       <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="F11" s="1">
         <v>1.9E-2</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" si="0"/>
+      <c r="G11" s="1">
+        <f>F11*C11</f>
         <v>0.19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -751,18 +707,15 @@
       <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="F12" s="1">
         <v>1.9E-2</v>
       </c>
-      <c r="I12" s="1">
-        <f t="shared" si="0"/>
+      <c r="G12" s="1">
+        <f>F12*C12</f>
         <v>0.19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -775,18 +728,15 @@
       <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="F13" s="1">
         <v>1.9E-2</v>
       </c>
-      <c r="I13" s="1">
-        <f t="shared" si="0"/>
+      <c r="G13" s="1">
+        <f>F13*C13</f>
         <v>0.19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -799,18 +749,15 @@
       <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="F14" s="1">
         <v>5.56</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="0"/>
+      <c r="G14" s="1">
+        <f>F14*C14</f>
         <v>5.56</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -823,18 +770,15 @@
       <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="F15" s="1">
         <v>0.61799999999999999</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="0"/>
+      <c r="G15" s="1">
+        <f>F15*C15</f>
         <v>1.236</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -847,18 +791,15 @@
       <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="F16" s="1">
         <v>0.06</v>
       </c>
-      <c r="I16" s="1">
-        <f t="shared" si="0"/>
+      <c r="G16" s="1">
+        <f>F16*C16</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -871,18 +812,15 @@
       <c r="E17" t="s">
         <v>19</v>
       </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
-        <f t="shared" si="0"/>
+      <c r="G17" s="1">
+        <f>F17*C17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -895,18 +833,15 @@
       <c r="E18" t="s">
         <v>19</v>
       </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="F18" s="1">
         <v>0.31900000000000001</v>
       </c>
-      <c r="I18" s="1">
-        <f t="shared" si="0"/>
+      <c r="G18" s="1">
+        <f>F18*C18</f>
         <v>1.276</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -919,18 +854,15 @@
       <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="F19" s="1">
         <v>0.6</v>
       </c>
-      <c r="I19" s="1">
-        <f t="shared" si="0"/>
+      <c r="G19" s="1">
+        <f>F19*C19</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -943,20 +875,17 @@
       <c r="E20" t="s">
         <v>11</v>
       </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="F20" s="1">
         <v>39.950000000000003</v>
       </c>
-      <c r="I20" s="1">
-        <f>H20*C20</f>
+      <c r="G20" s="1">
+        <f>F20*C20</f>
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I21" s="1">
-        <f>SUM(I2:I20)</f>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="1">
+        <f>SUM(G2:G20)</f>
         <v>105.47199999999999</v>
       </c>
     </row>

--- a/BillOfMaterials.xlsx
+++ b/BillOfMaterials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="8820" windowHeight="5016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="5016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +504,7 @@
         <v>15.96</v>
       </c>
       <c r="G2" s="1">
-        <f>F2*C2</f>
+        <f t="shared" ref="G2:G20" si="0">F2*C2</f>
         <v>15.96</v>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <v>3.78</v>
       </c>
       <c r="G3" s="1">
-        <f>F3*C3</f>
+        <f t="shared" si="0"/>
         <v>3.78</v>
       </c>
     </row>
@@ -546,7 +546,7 @@
         <v>1.56</v>
       </c>
       <c r="G4" s="1">
-        <f>F4*C4</f>
+        <f t="shared" si="0"/>
         <v>1.56</v>
       </c>
     </row>
@@ -567,7 +567,7 @@
         <v>1.76</v>
       </c>
       <c r="G5" s="1">
-        <f>F5*C5</f>
+        <f t="shared" si="0"/>
         <v>1.76</v>
       </c>
     </row>
@@ -588,7 +588,7 @@
         <v>31.96</v>
       </c>
       <c r="G6" s="1">
-        <f>F6*C6</f>
+        <f t="shared" si="0"/>
         <v>31.96</v>
       </c>
     </row>
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <f>F7*C7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -615,7 +615,7 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -627,8 +627,8 @@
         <v>0.48</v>
       </c>
       <c r="G8" s="1">
-        <f>F8*C8</f>
-        <v>0.96</v>
+        <f t="shared" si="0"/>
+        <v>0.48</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <f>F9*C9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <f>F10*C10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -690,7 +690,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="G11" s="1">
-        <f>F11*C11</f>
+        <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
     </row>
@@ -711,7 +711,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="G12" s="1">
-        <f>F12*C12</f>
+        <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
     </row>
@@ -732,7 +732,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="G13" s="1">
-        <f>F13*C13</f>
+        <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>5.56</v>
       </c>
       <c r="G14" s="1">
-        <f>F14*C14</f>
+        <f t="shared" si="0"/>
         <v>5.56</v>
       </c>
     </row>
@@ -774,7 +774,7 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="G15" s="1">
-        <f>F15*C15</f>
+        <f t="shared" si="0"/>
         <v>1.236</v>
       </c>
     </row>
@@ -795,7 +795,7 @@
         <v>0.06</v>
       </c>
       <c r="G16" s="1">
-        <f>F16*C16</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <f>F17*C17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -837,7 +837,7 @@
         <v>0.31900000000000001</v>
       </c>
       <c r="G18" s="1">
-        <f>F18*C18</f>
+        <f t="shared" si="0"/>
         <v>1.276</v>
       </c>
     </row>
@@ -858,7 +858,7 @@
         <v>0.6</v>
       </c>
       <c r="G19" s="1">
-        <f>F19*C19</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
@@ -876,17 +876,17 @@
         <v>11</v>
       </c>
       <c r="F20" s="1">
-        <v>39.950000000000003</v>
+        <v>19.95</v>
       </c>
       <c r="G20" s="1">
-        <f>F20*C20</f>
-        <v>39.950000000000003</v>
+        <f t="shared" si="0"/>
+        <v>19.95</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G21" s="1">
         <f>SUM(G2:G20)</f>
-        <v>105.47199999999999</v>
+        <v>84.99199999999999</v>
       </c>
     </row>
   </sheetData>
